--- a/Week 9/Weekly Report 9.xlsx
+++ b/Week 9/Weekly Report 9.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaWeb\swp391-onlineshop-gr1\Week 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaWeb\swp391-onlineshop-gr1\Week 9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
+    <sheet name="Week 9" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,8 +24,96 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Pending: just planned, have not started implementing yet
+In Progress: planned and doing, but have not completed yet
+Completed: planned and completed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Pending: just planned, have not started implementing yet
+In Progress: planned and doing, but have not completed yet
+Completed: planned and completed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Pending: issue occurred, no solution yet
+In Progress: occurred and handling issue
+Completed: occurred and handled issue</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>+ Đinh Tiến Lâm(lamdthe153097).</t>
   </si>
@@ -178,12 +267,96 @@
   <si>
     <t>PROJECT REPORT</t>
   </si>
+  <si>
+    <t>Time:</t>
+  </si>
+  <si>
+    <t>20/09/2021 - 24/09/2021</t>
+  </si>
+  <si>
+    <t>I. Status Report</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Project Work Item</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Notes (Work Item in Details)</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>II. Team Contribution</t>
+  </si>
+  <si>
+    <t>Project Task</t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
+    <t>Notes (Task Details, etc.)</t>
+  </si>
+  <si>
+    <t>III. Project Issues</t>
+  </si>
+  <si>
+    <t>Project Issue</t>
+  </si>
+  <si>
+    <t>Notes (Solution, Suggestion, etc.)</t>
+  </si>
+  <si>
+    <t>IV. Next Week Plan</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>V. Other Project Masters/Suggestions</t>
+  </si>
+  <si>
+    <t>Project Matter/Suggestions</t>
+  </si>
+  <si>
+    <t>Raised By</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>VI. Tranning</t>
+  </si>
+  <si>
+    <t>Memtor</t>
+  </si>
+  <si>
+    <t>Recording Link</t>
+  </si>
+  <si>
+    <t>Test the software and complete the related documents</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Present the project to the lecturer</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -324,8 +497,93 @@
       <color rgb="FFFF0000"/>
       <name val="VNI-Swiss-Condense"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -338,8 +596,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -347,11 +623,151 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -410,9 +826,96 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -692,7 +1195,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
@@ -1011,4 +1514,247 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <picture r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26:E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.75" style="24" customWidth="1"/>
+    <col min="2" max="2" width="33.75" style="24" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="24" customWidth="1"/>
+    <col min="4" max="4" width="56.5" style="24" customWidth="1"/>
+    <col min="5" max="5" width="13.25" style="24" customWidth="1"/>
+    <col min="6" max="6" width="14" style="24" customWidth="1"/>
+    <col min="7" max="16384" width="7.75" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="25"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="30">
+        <v>1</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
+        <v>1</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="30">
+        <v>1</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+    </row>
+    <row r="16" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="38"/>
+      <c r="F17" s="39"/>
+    </row>
+    <row r="18" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="40">
+        <v>1</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="42"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="45"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="47">
+        <v>1</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+    </row>
+    <row r="25" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="49" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="50" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="40">
+        <v>1</v>
+      </c>
+      <c r="B27" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="54"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14 D10 C6">
+      <formula1>"Pending, In Progress, Completed"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>